--- a/data/outputs/management/107.xlsx
+++ b/data/outputs/management/107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ95"/>
+  <dimension ref="A1:BR95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -913,6 +918,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1114,6 +1120,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1323,6 +1330,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1528,6 +1536,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1741,6 +1750,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1946,6 +1956,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2159,6 +2170,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2364,6 +2376,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2565,6 +2578,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2774,6 +2788,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>3025029</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2979,6 +2998,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>3846082</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3184,6 +3208,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3389,6 +3414,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3590,6 +3616,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3795,6 +3822,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4008,6 +4036,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4225,6 +4254,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4434,6 +4464,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4643,6 +4674,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4852,6 +4884,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5069,6 +5102,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5278,6 +5312,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5483,6 +5518,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5692,6 +5728,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5901,6 +5938,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6118,6 +6156,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6327,6 +6366,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6536,6 +6576,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6745,6 +6786,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6950,6 +6992,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7155,6 +7198,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7368,6 +7412,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7569,6 +7614,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>3831168</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7774,6 +7824,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7991,6 +8042,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8204,6 +8256,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8421,6 +8474,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8630,6 +8684,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8843,6 +8898,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9048,6 +9104,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9269,6 +9326,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9478,6 +9536,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9691,6 +9750,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9908,6 +9968,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>3037326</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10113,6 +10178,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10314,6 +10380,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10519,6 +10586,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10728,6 +10796,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10929,6 +10998,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11134,6 +11204,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>4133278</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11339,6 +11414,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11552,6 +11628,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11761,6 +11838,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11966,6 +12044,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12167,6 +12246,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12380,6 +12460,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12581,6 +12662,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12802,6 +12884,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13011,6 +13094,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13212,6 +13296,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13413,6 +13498,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13618,6 +13704,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13803,6 +13890,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14020,6 +14108,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14229,6 +14318,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14430,6 +14520,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14635,6 +14726,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14836,6 +14928,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15045,6 +15138,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>2675205</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15250,6 +15348,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15451,6 +15550,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15668,6 +15768,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>2947665</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15889,6 +15994,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16094,6 +16200,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16303,6 +16410,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>3524311</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16508,6 +16620,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16721,6 +16834,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16930,6 +17044,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17135,6 +17250,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17344,6 +17460,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17553,6 +17670,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17758,6 +17876,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17959,6 +18078,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18160,6 +18280,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18361,6 +18482,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18574,6 +18696,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18779,6 +18902,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>2950152</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18980,6 +19108,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19189,6 +19318,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19398,6 +19528,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19599,6 +19730,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19808,6 +19940,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20021,6 +20154,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20206,6 +20340,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
